--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\QuanLyNo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120359_student_hcmus_edu_vn/Documents/HCMUS/year 2/hk2/oop/TH/Java/Project/QuanLyNo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_B75DFE763711714A5C599BAD453ECB69C7BE0314" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D782B48-9867-4CC8-ADCF-4F854AD56917}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Luong" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Ngan hang" sheetId="3" r:id="rId3"/>
     <sheet name="No" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Luong chong</t>
   </si>
@@ -142,17 +143,23 @@
   </si>
   <si>
     <t>Phan tram lai</t>
+  </si>
+  <si>
+    <t>Tra no</t>
+  </si>
+  <si>
+    <t>Tong cong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +170,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,8 +206,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -509,21 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -540,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,10 +583,11 @@
         <v>1200000</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>IF(Luong!D2 + Luong!E2 -  'Chi phi'!B2 - 'Chi phi'!C2 - 'Chi phi'!D2 - 'Chi phi'!E2 &gt;= 0, Luong!D2 + Luong!E2 - 'Chi phi'!B2 - 'Chi phi'!C2 - 'Chi phi'!D2 - 'Chi phi'!E2,  IF(Luong!D2 + Luong!E2 + Luong!B2 + Luong!C2 -  'Chi phi'!B2 - 'Chi phi'!C2 - 'Chi phi'!D2 - 'Chi phi'!E2 &gt;= 0, Luong!D2 + Luong!E2 + Luong!B2 + Luong!C2 -  'Chi phi'!B2 - 'Chi phi'!C2 - 'Chi phi'!D2 - 'Chi phi'!E2, "Vo no !"))</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -588,10 +601,11 @@
         <v>1200000</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f>IF(Luong!D3 + Luong!E3 -  'Chi phi'!B3 - 'Chi phi'!C3 - 'Chi phi'!D3 - 'Chi phi'!E3 &gt;= 0, Luong!D3 + Luong!E3 - 'Chi phi'!B3 - 'Chi phi'!C3 - 'Chi phi'!D3 - 'Chi phi'!E3,  IF(Luong!D3 + Luong!E3 + Luong!B3 + Luong!C3 -  'Chi phi'!B3 - 'Chi phi'!C3 - 'Chi phi'!D3 - 'Chi phi'!E3 &gt;= 0, Luong!D3 + Luong!E3 + Luong!B3 + Luong!C3 -  'Chi phi'!B3 - 'Chi phi'!C3 - 'Chi phi'!D3 - 'Chi phi'!E3, "Vo no !"))</f>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -605,10 +619,11 @@
         <v>1200000</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f>IF(Luong!D4 + Luong!E4 -  'Chi phi'!B4 - 'Chi phi'!C4 - 'Chi phi'!D4 - 'Chi phi'!E4 &gt;= 0, Luong!D4 + Luong!E4 - 'Chi phi'!B4 - 'Chi phi'!C4 - 'Chi phi'!D4 - 'Chi phi'!E4,  IF(Luong!D4 + Luong!E4 + Luong!B4 + Luong!C4 -  'Chi phi'!B4 - 'Chi phi'!C4 - 'Chi phi'!D4 - 'Chi phi'!E4 &gt;= 0, Luong!D4 + Luong!E4 + Luong!B4 + Luong!C4 -  'Chi phi'!B4 - 'Chi phi'!C4 - 'Chi phi'!D4 - 'Chi phi'!E4, "Vo no !"))</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -622,10 +637,11 @@
         <v>1200000</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f>IF(Luong!D5 + Luong!E5 -  'Chi phi'!B5 - 'Chi phi'!C5 - 'Chi phi'!D5 - 'Chi phi'!E5 &gt;= 0, Luong!D5 + Luong!E5 - 'Chi phi'!B5 - 'Chi phi'!C5 - 'Chi phi'!D5 - 'Chi phi'!E5,  IF(Luong!D5 + Luong!E5 + Luong!B5 + Luong!C5 -  'Chi phi'!B5 - 'Chi phi'!C5 - 'Chi phi'!D5 - 'Chi phi'!E5 &gt;= 0, Luong!D5 + Luong!E5 + Luong!B5 + Luong!C5 -  'Chi phi'!B5 - 'Chi phi'!C5 - 'Chi phi'!D5 - 'Chi phi'!E5, "Vo no !"))</f>
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -639,10 +655,11 @@
         <v>1200000</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f>IF(Luong!D6 + Luong!E6 -  'Chi phi'!B6 - 'Chi phi'!C6 - 'Chi phi'!D6 - 'Chi phi'!E6 &gt;= 0, Luong!D6 + Luong!E6 - 'Chi phi'!B6 - 'Chi phi'!C6 - 'Chi phi'!D6 - 'Chi phi'!E6,  IF(Luong!D6 + Luong!E6 + Luong!B6 + Luong!C6 -  'Chi phi'!B6 - 'Chi phi'!C6 - 'Chi phi'!D6 - 'Chi phi'!E6 &gt;= 0, Luong!D6 + Luong!E6 + Luong!B6 + Luong!C6 -  'Chi phi'!B6 - 'Chi phi'!C6 - 'Chi phi'!D6 - 'Chi phi'!E6, "Vo no !"))</f>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -656,28 +673,36 @@
         <v>1200000</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
+        <f>IF(Luong!D7 + Luong!E7 -  'Chi phi'!B7 - 'Chi phi'!C7 - 'Chi phi'!D7 - 'Chi phi'!E7 &gt;= 0, Luong!D7 + Luong!E7 - 'Chi phi'!B7 - 'Chi phi'!C7 - 'Chi phi'!D7 - 'Chi phi'!E7,  IF(Luong!D7 + Luong!E7 + Luong!B7 + Luong!C7 -  'Chi phi'!B7 - 'Chi phi'!C7 - 'Chi phi'!D7 - 'Chi phi'!E7 &gt;= 0, Luong!D7 + Luong!E7 + Luong!B7 + Luong!C7 -  'Chi phi'!B7 - 'Chi phi'!C7 - 'Chi phi'!D7 - 'Chi phi'!E7, "Vo no !"))</f>
+        <v>4320000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -694,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,7 +736,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,7 +753,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -745,7 +770,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,7 +787,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -779,7 +804,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -796,7 +821,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -812,6 +837,12 @@
       <c r="E8" s="3">
         <v>120000</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,19 +850,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -850,8 +882,11 @@
       <c r="F1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -868,11 +903,15 @@
         <v>16</v>
       </c>
       <c r="F2" s="4">
-        <f>6%*C2</f>
+        <f>IF(D2, 6%, 6.6%)*C2</f>
         <v>72000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4">
+        <f>F2+C2</f>
+        <v>1272000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -889,11 +928,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="4">
-        <f>6.6%*C3</f>
+        <f t="shared" ref="F3:F8" si="0">IF(D3, 6%, 6.6%)*C3</f>
         <v>79200</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G8" si="1">F3+C3</f>
+        <v>1279200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -910,11 +953,15 @@
         <v>28</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F3:F8" si="0">6%*C4</f>
+        <f t="shared" si="0"/>
         <v>72000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>1272000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -931,11 +978,15 @@
         <v>30</v>
       </c>
       <c r="F5" s="4">
-        <f>6.6%*C5</f>
+        <f t="shared" si="0"/>
         <v>79200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>1279200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -955,8 +1006,12 @@
         <f t="shared" si="0"/>
         <v>72000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>1272000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -973,11 +1028,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="4">
-        <f>6.6%*C7</f>
+        <f t="shared" si="0"/>
         <v>79200</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>1279200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -996,6 +1055,10 @@
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>72000</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>1272000</v>
       </c>
     </row>
   </sheetData>
@@ -1004,26 +1067,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="3">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1033,8 +1099,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1042,10 +1111,11 @@
         <v>0.1</v>
       </c>
       <c r="C3" s="3">
+        <f>B3/100*$B$1</f>
         <v>220000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,10 +1123,11 @@
         <v>0.1</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" ref="C4:C9" si="0">B4/100*$B$1</f>
         <v>220000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1064,10 +1135,11 @@
         <v>0.1</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1075,10 +1147,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,10 +1159,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1097,10 +1171,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1108,26 +1183,33 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1217,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1225,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,16 +1233,16 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
   </sheetData>
